--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2346846.579302527</v>
+        <v>2462463.441039113</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445555.52943491</v>
+        <v>12445534.67060185</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9277627.765098475</v>
+        <v>9277632.000750512</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83532033605545</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="H2" t="n">
-        <v>7.45426690963604</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739395</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179689</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482595335101</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.3828147651805</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -747,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>78.38816760747326</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642705</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.161321588189</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8434583985096</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>162.1731128249368</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140.4218841548873</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180232</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718864</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.3828147651805</v>
+        <v>58.37633100085718</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +916,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>59.80127191868286</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>220.7742444965156</v>
       </c>
     </row>
     <row r="6">
@@ -978,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>12.92983380141443</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>49.67457506598028</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
         <v>43.9218040015056</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -1038,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>24.09841285117236</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>109.5112496103429</v>
       </c>
       <c r="W7" t="n">
         <v>263.7138800015061</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>31.89466217324523</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465025</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>316.2828579048804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.24979976115233</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>190.2932553761598</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>3.146112971487943</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>116.2330001163608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1424,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>45.36631724422232</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>32.81060261323961</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1658,7 +1660,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>14.90335196317939</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1895,7 +1897,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>23.62554568141315</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -2050,7 +2052,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0.6324680438225141</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.623597659135752</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>100.380155143069</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>62.18842302760174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>45.17596778974989</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>40.57972681915366</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>212.3267021497095</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>67.43549003635357</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>140.4383865840208</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3320,10 +3322,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.79687029691044</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>280.9847360830859</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3676,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>103.780257294552</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2715008497912</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>65.67353929277292</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>70.38407275859061</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3958,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3983,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>112.5133406574304</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>137.761022548695</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165.026606758328</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C2" t="n">
-        <v>165.026606758328</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="D2" t="n">
-        <v>165.026606758328</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="E2" t="n">
-        <v>165.026606758328</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="F2" t="n">
-        <v>158.0811060091245</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="G2" t="n">
-        <v>145.1161359727049</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.586573437719</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121444</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467323</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935561</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959971</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795978</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670329</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288951</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108068</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060722</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060722</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>899.1940867193391</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>684.7549646357933</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>431.069853995884</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>165.026606758328</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>165.026606758328</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>165.026606758328</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>165.026606758328</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>246.7851504346055</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="C3" t="n">
-        <v>246.7851504346055</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="D3" t="n">
-        <v>246.7851504346055</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="E3" t="n">
-        <v>246.7851504346055</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="F3" t="n">
-        <v>100.2505924614905</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="G3" t="n">
-        <v>21.07062518121444</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>21.07062518121444</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121444</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121444</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371046</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433172</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>503.0182926608458</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>712.9144234088951</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>882.7085813070412</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>999.6502960944094</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060722</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.15693115524</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>886.5091315712108</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>689.6975574313021</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>689.6975574313021</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>454.5454491995594</v>
+        <v>872.7084111371209</v>
       </c>
       <c r="W3" t="n">
-        <v>454.5454491995594</v>
+        <v>618.4710544089194</v>
       </c>
       <c r="X3" t="n">
-        <v>454.5454491995594</v>
+        <v>410.6195542033865</v>
       </c>
       <c r="Y3" t="n">
-        <v>246.7851504346055</v>
+        <v>202.8592554384327</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>291.3606013841988</v>
+        <v>508.7192933853597</v>
       </c>
       <c r="C4" t="n">
-        <v>291.3606013841988</v>
+        <v>339.7831104574528</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3606013841988</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E4" t="n">
-        <v>291.3606013841988</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F4" t="n">
-        <v>144.4706538862884</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4706538862884</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4706538862884</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121444</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121444</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481199</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5471352504851</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4958971570823</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8633854210598</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0791761376793</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097373</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060722</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>924.7153898972002</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>924.7153898972002</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>699.2441356468935</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>433.2008884093374</v>
+        <v>995.8895290960678</v>
       </c>
       <c r="V4" t="n">
-        <v>433.2008884093374</v>
+        <v>995.8895290960678</v>
       </c>
       <c r="W4" t="n">
-        <v>433.2008884093374</v>
+        <v>729.5118725288899</v>
       </c>
       <c r="X4" t="n">
-        <v>433.2008884093374</v>
+        <v>729.5118725288899</v>
       </c>
       <c r="Y4" t="n">
-        <v>433.2008884093374</v>
+        <v>508.7192933853597</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>573.7617370571243</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C5" t="n">
-        <v>573.7617370571243</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D5" t="n">
-        <v>573.7617370571243</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E5" t="n">
-        <v>307.3840804899463</v>
+        <v>423.8554133656</v>
       </c>
       <c r="F5" t="n">
-        <v>300.4385797407429</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="G5" t="n">
-        <v>287.4747669672984</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
@@ -4595,22 +4597,22 @@
         <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>840.1393936243022</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>840.1393936243022</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V5" t="n">
-        <v>840.1393936243022</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="W5" t="n">
-        <v>840.1393936243022</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="X5" t="n">
-        <v>840.1393936243022</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="Y5" t="n">
-        <v>840.1393936243022</v>
+        <v>423.8554133656</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>411.1078750723513</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="C6" t="n">
-        <v>411.1078750723513</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="D6" t="n">
-        <v>262.1734654111</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="E6" t="n">
-        <v>262.1734654111</v>
+        <v>449.8779753016586</v>
       </c>
       <c r="F6" t="n">
-        <v>115.638907437985</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="G6" t="n">
-        <v>115.638907437985</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H6" t="n">
         <v>65.46256898749988</v>
@@ -4647,49 +4649,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U6" t="n">
-        <v>826.7196740428381</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="V6" t="n">
-        <v>826.7196740428381</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="W6" t="n">
-        <v>826.7196740428381</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="X6" t="n">
-        <v>618.8681738373052</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="Y6" t="n">
-        <v>411.1078750723513</v>
+        <v>462.9384134849055</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>360.8982497058278</v>
+        <v>328.2753322811682</v>
       </c>
       <c r="C7" t="n">
-        <v>360.8982497058278</v>
+        <v>328.2753322811682</v>
       </c>
       <c r="D7" t="n">
-        <v>360.8982497058278</v>
+        <v>328.2753322811682</v>
       </c>
       <c r="E7" t="n">
-        <v>336.5564185430274</v>
+        <v>328.2753322811682</v>
       </c>
       <c r="F7" t="n">
-        <v>189.666471045117</v>
+        <v>328.2753322811682</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375337</v>
@@ -4747,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165359</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T7" t="n">
-        <v>848.0684854165359</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="U7" t="n">
-        <v>848.0684854165359</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="V7" t="n">
-        <v>848.0684854165359</v>
+        <v>815.4455679918763</v>
       </c>
       <c r="W7" t="n">
-        <v>581.6908288493579</v>
+        <v>549.0679114246983</v>
       </c>
       <c r="X7" t="n">
-        <v>581.6908288493579</v>
+        <v>549.0679114246983</v>
       </c>
       <c r="Y7" t="n">
-        <v>360.8982497058278</v>
+        <v>328.2753322811682</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1146.918698535759</v>
+        <v>1699.084539679462</v>
       </c>
       <c r="C8" t="n">
-        <v>777.9561815953475</v>
+        <v>1330.122022739051</v>
       </c>
       <c r="D8" t="n">
-        <v>777.9561815953475</v>
+        <v>1330.122022739051</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9561815953475</v>
+        <v>944.3337701408063</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057399</v>
+        <v>533.3478653511988</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.3702251467172</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.1757437607426</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.1862829045936</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1219.647962995228</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1655.591685209586</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2053.905718940598</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2359.3565305502</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2540.564622661166</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2560.562760342786</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2435.830015762138</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2435.830015762138</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190806</v>
+        <v>2435.830015762138</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847235</v>
+        <v>2104.767128418568</v>
       </c>
       <c r="W8" t="n">
-        <v>1852.996172847235</v>
+        <v>2104.767128418568</v>
       </c>
       <c r="X8" t="n">
-        <v>1852.996172847235</v>
+        <v>1731.301370157488</v>
       </c>
       <c r="Y8" t="n">
-        <v>1533.518538599881</v>
+        <v>1731.301370157488</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.66559839993887</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.4887579637189</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>298.0857543148184</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049859</v>
+        <v>790.1297173275477</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1153.196185801849</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1540.280588274419</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>2174.019871459258</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2421.055229888883</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2536.272628442628</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2560.562760342786</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2424.826280251701</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>515.8852429786115</v>
+        <v>201.2790945951579</v>
       </c>
       <c r="C10" t="n">
-        <v>515.8852429786115</v>
+        <v>198.1012027047661</v>
       </c>
       <c r="D10" t="n">
-        <v>515.8852429786115</v>
+        <v>198.1012027047661</v>
       </c>
       <c r="E10" t="n">
-        <v>367.9721493962184</v>
+        <v>198.1012027047661</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962184</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.6346830838016</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.250021567657</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.3850043368923</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>823.865389990404</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1382.582027931092</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1581.490387616501</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1439.128892699198</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234359</v>
+        <v>1216.147591173603</v>
       </c>
       <c r="U10" t="n">
-        <v>1150.699034738196</v>
+        <v>927.0292176682451</v>
       </c>
       <c r="V10" t="n">
-        <v>1150.699034738196</v>
+        <v>672.3447294623583</v>
       </c>
       <c r="W10" t="n">
-        <v>861.2818647012357</v>
+        <v>382.9275594253976</v>
       </c>
       <c r="X10" t="n">
-        <v>633.2923138032183</v>
+        <v>382.9275594253976</v>
       </c>
       <c r="Y10" t="n">
-        <v>515.8852429786115</v>
+        <v>382.9275594253976</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>835.5837926935562</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C13" t="n">
-        <v>666.6476097656493</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>516.5309703533136</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>368.6178767709205</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>221.7279292730101</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>221.7279292730101</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1466.014387565343</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X13" t="n">
-        <v>1238.024836667326</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y13" t="n">
-        <v>1017.232257523796</v>
+        <v>951.7772127656159</v>
       </c>
     </row>
     <row r="14">
@@ -5270,40 +5272,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>2726.914133601551</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
-        <v>3324.292621228103</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>3951.89058478271</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>4033.948342528643</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532263</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.278523222742</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2159.677058245683</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1870.601831589881</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,16 +5785,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2515.675093211831</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273905</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.7772127656159</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C25" t="n">
-        <v>782.841029837709</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W25" t="n">
-        <v>1582.207807637403</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6212,22 +6214,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,13 +6238,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>221.3431781811715</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>699.7311804011399</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>699.7311804011399</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888042</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2384.146494663491</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2201.291660318396</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1981.690195341337</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1692.614968685535</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V28" t="n">
-        <v>1437.930480479648</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W28" t="n">
-        <v>1148.513310442687</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X28" t="n">
-        <v>920.52375954467</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>699.7311804011399</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6443,10 +6445,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6461,10 +6463,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913446</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>2876.560776129205</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>2876.560776129205</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>3504.158739683812</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>4056.068469923099</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3235.613758549116</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>3066.677575621209</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>2916.560936208873</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4182.156460765733</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>3927.471972559846</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>3638.054802522885</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X31" t="n">
-        <v>3638.054802522885</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y31" t="n">
-        <v>3417.262223379355</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,28 +6688,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6780,22 +6782,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>917.5010142286973</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C34" t="n">
-        <v>748.5648313007904</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D34" t="n">
-        <v>598.4481918884546</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E34" t="n">
-        <v>450.5350983060615</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>303.6451508081511</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>303.6451508081511</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>161.9333196503492</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6898,10 +6900,10 @@
         <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y34" t="n">
-        <v>1099.149479058937</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,28 +6949,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>2715.159942084667</v>
+        <v>221.3431781811715</v>
       </c>
       <c r="L36" t="n">
-        <v>2715.159942084667</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M36" t="n">
-        <v>3278.063798229818</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>3905.661761784424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>4457.571492023711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2944.624395303956</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="C37" t="n">
-        <v>2944.624395303956</v>
+        <v>631.5645865368213</v>
       </c>
       <c r="D37" t="n">
-        <v>2794.50775589162</v>
+        <v>481.4479471244855</v>
       </c>
       <c r="E37" t="n">
-        <v>2646.594662309227</v>
+        <v>333.5348535420924</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309227</v>
+        <v>333.5348535420924</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024107</v>
+        <v>166.3387542569723</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866305</v>
+        <v>166.3387542569723</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328842</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U37" t="n">
-        <v>3937.508183588351</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V37" t="n">
-        <v>3682.823695382464</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W37" t="n">
-        <v>3393.406525345504</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X37" t="n">
-        <v>3165.416974447486</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y37" t="n">
-        <v>2944.624395303956</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,28 +7171,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
@@ -7248,22 +7250,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190824</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
         <v>1896.176478190824</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356194</v>
+        <v>658.9255961109956</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7354,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2342.134540858491</v>
       </c>
       <c r="T40" t="n">
-        <v>2172.545877962526</v>
+        <v>2122.533075881433</v>
       </c>
       <c r="U40" t="n">
-        <v>1883.470651306724</v>
+        <v>1833.45784922563</v>
       </c>
       <c r="V40" t="n">
-        <v>1628.786163100837</v>
+        <v>1578.773361019743</v>
       </c>
       <c r="W40" t="n">
-        <v>1339.368993063876</v>
+        <v>1289.356190982783</v>
       </c>
       <c r="X40" t="n">
-        <v>1111.379442165859</v>
+        <v>1061.366640084765</v>
       </c>
       <c r="Y40" t="n">
-        <v>1111.379442165859</v>
+        <v>840.5740609412353</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1022.872235754091</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C43" t="n">
-        <v>853.9360528261844</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D43" t="n">
-        <v>703.8194134138487</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E43" t="n">
-        <v>555.9063198314556</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>4401.757925742791</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>4147.073437536905</v>
       </c>
       <c r="W43" t="n">
-        <v>1653.302830625878</v>
+        <v>3857.656267499944</v>
       </c>
       <c r="X43" t="n">
-        <v>1425.313279727861</v>
+        <v>3629.666716601927</v>
       </c>
       <c r="Y43" t="n">
-        <v>1204.520700584331</v>
+        <v>3408.874137458397</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683104</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C46" t="n">
-        <v>527.7722521572603</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D46" t="n">
-        <v>527.7722521572603</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E46" t="n">
-        <v>379.8591585748671</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>232.9692110769568</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7828,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877299</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079508</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71.01218599085087</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>25.88658582607218</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8143,7 +8145,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>178.5096609094455</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8152,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>134.1688236634867</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8295,7 +8297,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>199.5030096760078</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>54.9531451156659</v>
+        <v>304.9014880782322</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>94.92839560200153</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>253.7123957233514</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>152.3434691354485</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>180.3938179578221</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.961055692959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>129.6605885985412</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>186.142843193522</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>4.186823682519922</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>105.8542358274155</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>6.257951202385328</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>13.83034628221195</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>85.27126880501635</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>9.468966021655078</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>5.199738306158224</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>77.24602870709256</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1339494774971</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>114.1584408891644</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>75.03697526434064</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>67.31863952450691</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>27.76311574357382</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>815712.9323180662</v>
+        <v>815725.6195683572</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>820986.0497747062</v>
+        <v>820976.9085260348</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>797336.9821029655</v>
+        <v>797336.9821029656</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>797336.9821029655</v>
+        <v>797336.9821029654</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>797336.9821029656</v>
+        <v>797336.9821029655</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>797336.9821029656</v>
+        <v>797336.9821029655</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>797336.9821029656</v>
+        <v>797336.9821029655</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>797336.9821029655</v>
+        <v>797336.9821029656</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>797336.9821029656</v>
+        <v>797336.9821029655</v>
       </c>
     </row>
     <row r="14">
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="I2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="G2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
         <v>625538.614759755</v>
@@ -26347,13 +26349,13 @@
         <v>625538.614759755</v>
       </c>
       <c r="N2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="O2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.614759755</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909295</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680940597</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059435</v>
+        <v>390680.0076580797</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507909.2320606927</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642087</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774269014</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756983</v>
+        <v>95270.23779101788</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132717.9756954688</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>251328.641096769</v>
+        <v>251227.3656190198</v>
       </c>
       <c r="C4" t="n">
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140338.6838374607</v>
+        <v>140465.2517501115</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179352</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179352</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179352</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557688</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92902.867575679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-357745.1435884556</v>
+        <v>-358055.7777696591</v>
       </c>
       <c r="C6" t="n">
-        <v>321665.7324534398</v>
+        <v>322032.2028215338</v>
       </c>
       <c r="D6" t="n">
-        <v>11902.55156157119</v>
+        <v>12259.24466094936</v>
       </c>
       <c r="E6" t="n">
-        <v>5763.611059508403</v>
+        <v>5339.820623361258</v>
       </c>
       <c r="F6" t="n">
+        <v>513249.0526840544</v>
+      </c>
+      <c r="G6" t="n">
+        <v>513249.052684054</v>
+      </c>
+      <c r="H6" t="n">
+        <v>513249.0526840543</v>
+      </c>
+      <c r="I6" t="n">
+        <v>513249.0526840543</v>
+      </c>
+      <c r="J6" t="n">
+        <v>444249.89826494</v>
+      </c>
+      <c r="K6" t="n">
+        <v>513249.0526840542</v>
+      </c>
+      <c r="L6" t="n">
+        <v>417978.8148930364</v>
+      </c>
+      <c r="M6" t="n">
+        <v>380531.0769885855</v>
+      </c>
+      <c r="N6" t="n">
+        <v>513249.0526840542</v>
+      </c>
+      <c r="O6" t="n">
         <v>513249.0526840541</v>
       </c>
-      <c r="G6" t="n">
-        <v>513249.0526840544</v>
-      </c>
-      <c r="H6" t="n">
-        <v>513249.0526840544</v>
-      </c>
-      <c r="I6" t="n">
-        <v>513249.0526840542</v>
-      </c>
-      <c r="J6" t="n">
-        <v>444336.5194976334</v>
-      </c>
-      <c r="K6" t="n">
-        <v>513163.8470863114</v>
-      </c>
-      <c r="L6" t="n">
-        <v>417866.4065464845</v>
-      </c>
-      <c r="M6" t="n">
-        <v>380641.7589551276</v>
-      </c>
-      <c r="N6" t="n">
-        <v>513249.0526840544</v>
-      </c>
-      <c r="O6" t="n">
-        <v>513249.0526840542</v>
-      </c>
       <c r="P6" t="n">
-        <v>513249.0526840546</v>
+        <v>513249.0526840543</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960512</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>933.7024595627835</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651805</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.1406900856964</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26822,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960512</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734270012</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>320.009878348061</v>
+        <v>319.6474457933052</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>434.2730407788905</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651805</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363256675</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.4268100841903</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.567598013952</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651805</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363256675</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985331</v>
+        <v>376.4268100841905</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.5675980139515</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651805</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363256675</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.4268100841903</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.567598013952</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>180.5549891403835</v>
       </c>
       <c r="H2" t="n">
-        <v>306.7510990208821</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.36944370495445</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27467,16 +27469,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>57.63516497732701</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500679</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807542</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,22 +27508,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545278323952</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>70.62747432448847</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.41009602705003</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557937</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273816</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825655</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.87584376934689</v>
+        <v>227.8822995018203</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27636,7 @@
         <v>50.47975262776185</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>152.4884436845404</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>165.463694159538</v>
       </c>
     </row>
     <row r="6">
@@ -27698,19 +27700,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>144.7152466539865</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>49.80474520522948</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,10 +27760,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27780,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>122.3355497953968</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,10 +27794,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27831,7 +27833,7 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>142.6263937134851</v>
       </c>
       <c r="W7" t="n">
         <v>22.80911833508486</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>350.8391794902353</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>69.95508075117317</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27983,7 +27985,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.776449164527861</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>164.1007081271399</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>102.351653235734</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079601</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524897</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646641</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029075</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933471</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876045</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460613</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061213</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316485</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231208</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973325</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753591</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827646</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142096</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263681</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410375</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148967</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333965</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435872</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970823</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289719</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963479</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682316</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466122</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439951</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774366</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621608</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564882</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311989</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962994</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.10679840266501</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058009</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923505</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841623</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.589850782353</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653053</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195706</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187285</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.440923314869</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005026</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770373</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528309</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735295</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.72904772047777</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354609</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.753577726885559</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.44132789546674</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7098053157557</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.5802175972535</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.4691627763193</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.3427171354933</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.0954050359944</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>669.760257752508</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.4356192307897</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.7691690983024</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.3441667542132</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.7856768864752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.53465245140475</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3002862181508447</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.008341139436931</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.39634732035141</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.14683309026275</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.7441951079427</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.303051450217</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.0654741571283</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>508.8678404617169</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.3360580152217</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>477.8354464519086</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.5050724947592</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.3629847463703</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.30405581366401</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.09502415413394</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321277065419034</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.68372574675256</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.96985254840005</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.63422518415882</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.618318577252</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.3240987490125</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>263.9316641023127</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>237.9869810046256</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.6389757708732</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.70643221307418</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.34274778658779</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.194100917942755</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09183958618650338</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,16 +31837,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31853,13 +31855,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32327,16 +32329,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>225.4828684302363</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>177.7456072667729</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>264.8708611242907</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P30" t="n">
-        <v>539.5330155967664</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33500,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551105</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33515,10 +33517,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,16 +33736,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>266.6561007250657</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>710.7237876039883</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
@@ -33752,7 +33754,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
@@ -33907,7 +33909,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236508</v>
@@ -33968,25 +33970,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>162.5000833330452</v>
       </c>
       <c r="M39" t="n">
-        <v>677.2750468965962</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214699</v>
@@ -34129,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817577</v>
@@ -34211,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34220,7 +34222,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>302.5540177178164</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
@@ -34229,7 +34231,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,7 +34447,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422586</v>
@@ -34454,22 +34456,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>302.9675447508045</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622121</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836654</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176173</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187886</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095304</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099617</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678512</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288297</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272326</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490977</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>263.3828147651805</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848983</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021678</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296649</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.42521511748726</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3203589564701</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256214</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814112</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979571</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289086</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>130.3030555148417</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009349</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35033,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.5343130705672</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.3793117313388</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.5763021655061</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>428.7491718087217</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.3471941559171</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.337407809103</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.5361733430329</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.0384768797637</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.20013907234306</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.90656844127597</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.461612475858</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>497.014104053262</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.7338065396986</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>390.9943459318885</v>
       </c>
       <c r="O9" t="n">
-        <v>390.3778271117889</v>
+        <v>640.1406900856964</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.5306650804289</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.3812106603488</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783581</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.68023017873323</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.3488267513691</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>277.9141240093286</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.5155410641532</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.5721089186653</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9175350357667</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.82702814228593</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,13 +35503,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>20.54758114884936</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35975,16 +35977,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>82.88662398579186</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>37.7638331807514</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>127.0294221499317</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P30" t="n">
-        <v>405.5586081824362</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37148,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075146</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,10 +37165,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>568.5897536819699</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
@@ -37400,7 +37402,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
@@ -37555,7 +37557,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
@@ -37616,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>23.94570355317105</v>
       </c>
       <c r="M39" t="n">
-        <v>535.141012974578</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071396</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
         <v>479.4543240367771</v>
@@ -37859,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,7 +37870,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>171.2123056344831</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
@@ -37877,7 +37879,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38104,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>160.8335108287862</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2462463.441039113</v>
+        <v>2458159.101229244</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G2" t="n">
-        <v>232.2791855053265</v>
+        <v>116.9725659584294</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>62.46924586300781</v>
       </c>
       <c r="V3" t="n">
-        <v>162.1731128249368</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,22 +825,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>98.64876791787661</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>58.37633100085718</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,64 +907,64 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>219.4450108596164</v>
+      </c>
+      <c r="X5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="I5" t="n">
-        <v>115.3066195468971</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>152.7676931992223</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>251.1481678782825</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>220.7742444965156</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>12.92983380141443</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>155.2537761190401</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>84.65333871728963</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>109.5112496103429</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.89466217324523</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>11.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.9532539031005</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465025</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>91.06264775160821</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115233</v>
+        <v>20.24979976115247</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
-        <v>190.2932553761598</v>
+        <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
         <v>225.8092543744329</v>
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>3.146112971487943</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>23.91773138700752</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,13 +1378,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>32.81060261323961</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>23.62554568141315</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>51.36569740310337</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>66.85274231757823</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>45.17596778974989</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179411</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,19 +3006,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.3267021497095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>140.4383865840208</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>115.2302178375792</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>71.79687029691044</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>103.780257294552</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65.67353929277292</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>112.5133406574304</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054.855520006025</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C2" t="n">
-        <v>1054.855520006025</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D2" t="n">
-        <v>788.4778634388466</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E2" t="n">
         <v>522.1002068716687</v>
@@ -4321,25 +4321,25 @@
         <v>255.7225503044907</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
@@ -4372,10 +4372,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>202.8592554384327</v>
+        <v>626.7308562709218</v>
       </c>
       <c r="C3" t="n">
-        <v>202.8592554384327</v>
+        <v>452.2778269897948</v>
       </c>
       <c r="D3" t="n">
-        <v>202.8592554384327</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="E3" t="n">
-        <v>202.8592554384327</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="F3" t="n">
-        <v>202.8592554384327</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H3" t="n">
         <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004801</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>858.0464416374624</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>794.9461932909899</v>
       </c>
       <c r="V3" t="n">
-        <v>872.7084111371209</v>
+        <v>794.9461932909899</v>
       </c>
       <c r="W3" t="n">
-        <v>618.4710544089194</v>
+        <v>794.9461932909899</v>
       </c>
       <c r="X3" t="n">
-        <v>410.6195542033865</v>
+        <v>794.9461932909899</v>
       </c>
       <c r="Y3" t="n">
-        <v>202.8592554384327</v>
+        <v>794.9461932909899</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>508.7192933853597</v>
+        <v>773.5618350567178</v>
       </c>
       <c r="C4" t="n">
-        <v>339.7831104574528</v>
+        <v>604.6256521288109</v>
       </c>
       <c r="D4" t="n">
-        <v>189.666471045117</v>
+        <v>454.5090127164751</v>
       </c>
       <c r="E4" t="n">
-        <v>189.666471045117</v>
+        <v>306.595919134082</v>
       </c>
       <c r="F4" t="n">
-        <v>189.666471045117</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
@@ -4497,13 +4497,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4515,25 +4515,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>955.2102998869575</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>955.2102998869575</v>
       </c>
       <c r="U4" t="n">
-        <v>995.8895290960678</v>
+        <v>955.2102998869575</v>
       </c>
       <c r="V4" t="n">
-        <v>995.8895290960678</v>
+        <v>955.2102998869575</v>
       </c>
       <c r="W4" t="n">
-        <v>729.5118725288899</v>
+        <v>955.2102998869575</v>
       </c>
       <c r="X4" t="n">
-        <v>729.5118725288899</v>
+        <v>955.2102998869575</v>
       </c>
       <c r="Y4" t="n">
-        <v>508.7192933853597</v>
+        <v>955.2102998869575</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>423.8554133656</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="C5" t="n">
-        <v>423.8554133656</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="D5" t="n">
-        <v>423.8554133656</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="E5" t="n">
-        <v>423.8554133656</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="F5" t="n">
-        <v>416.9099126163966</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>403.9460998429521</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991316</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>646.8597007358178</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>646.8597007358178</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>646.8597007358178</v>
+        <v>833.1938928750989</v>
       </c>
       <c r="X5" t="n">
-        <v>646.8597007358178</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="Y5" t="n">
-        <v>423.8554133656</v>
+        <v>300.4385797407429</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>462.9384134849055</v>
+        <v>503.7220043479542</v>
       </c>
       <c r="C6" t="n">
-        <v>462.9384134849055</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D6" t="n">
-        <v>462.9384134849055</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E6" t="n">
-        <v>449.8779753016586</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4649,22 +4649,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4673,25 +4673,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>691.074259448092</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>462.9384134849055</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>462.9384134849055</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>462.9384134849055</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>462.9384134849055</v>
+        <v>879.6976401329762</v>
       </c>
       <c r="Y6" t="n">
-        <v>462.9384134849055</v>
+        <v>671.9373413680223</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>328.2753322811682</v>
+        <v>572.1814809021204</v>
       </c>
       <c r="C7" t="n">
-        <v>328.2753322811682</v>
+        <v>572.1814809021204</v>
       </c>
       <c r="D7" t="n">
-        <v>328.2753322811682</v>
+        <v>422.0648414897846</v>
       </c>
       <c r="E7" t="n">
-        <v>328.2753322811682</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="F7" t="n">
-        <v>328.2753322811682</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G7" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287944</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>815.4455679918763</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="W7" t="n">
-        <v>549.0679114246983</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="X7" t="n">
-        <v>549.0679114246983</v>
+        <v>572.1814809021204</v>
       </c>
       <c r="Y7" t="n">
-        <v>328.2753322811682</v>
+        <v>572.1814809021204</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1699.084539679462</v>
+        <v>1876.731217729092</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.122022739051</v>
+        <v>1507.76870078868</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.122022739051</v>
+        <v>1149.50300218193</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3337701408063</v>
+        <v>763.7147495836853</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3478653511988</v>
+        <v>352.7288447940777</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428661</v>
+        <v>341.0630268261489</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685571</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467172</v>
+        <v>187.3702251467168</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607426</v>
+        <v>442.1757437607413</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045936</v>
+        <v>795.1862829045911</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995228</v>
+        <v>1219.647962995224</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209586</v>
+        <v>1655.59168520958</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940598</v>
+        <v>2053.905718940591</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.3565305502</v>
+        <v>2359.356530550192</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661166</v>
+        <v>2540.564622661158</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342786</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762138</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762138</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.830015762138</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="V8" t="n">
-        <v>2104.767128418568</v>
+        <v>2229.499872999206</v>
       </c>
       <c r="W8" t="n">
-        <v>2104.767128418568</v>
+        <v>1876.731217729092</v>
       </c>
       <c r="X8" t="n">
-        <v>1731.301370157488</v>
+        <v>1876.731217729092</v>
       </c>
       <c r="Y8" t="n">
-        <v>1731.301370157488</v>
+        <v>1876.731217729092</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010714</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199444</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818586931</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532376</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801226</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763108</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993887</v>
+        <v>71.66559839993884</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685571</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637189</v>
+        <v>113.4887579637183</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148184</v>
+        <v>506.4581980381321</v>
       </c>
       <c r="L9" t="n">
-        <v>790.1297173275477</v>
+        <v>800.9941814716128</v>
       </c>
       <c r="M9" t="n">
-        <v>1153.196185801849</v>
+        <v>1164.060649945913</v>
       </c>
       <c r="N9" t="n">
-        <v>1540.280588274419</v>
+        <v>1551.145052418482</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.019871459258</v>
+        <v>1883.03186240587</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888883</v>
+        <v>2445.345361789032</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442628</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342786</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251701</v>
+        <v>2424.826280251692</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.816477685341</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.72632175157</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1767.574213519828</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791626</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586093</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821139</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.2790945951579</v>
+        <v>665.0671186274017</v>
       </c>
       <c r="C10" t="n">
-        <v>198.1012027047661</v>
+        <v>496.1309356994948</v>
       </c>
       <c r="D10" t="n">
-        <v>198.1012027047661</v>
+        <v>346.014296287159</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1012027047661</v>
+        <v>198.1012027047659</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685571</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685571</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685571</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685571</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J10" t="n">
-        <v>76.6346830838016</v>
+        <v>76.63468308380115</v>
       </c>
       <c r="K10" t="n">
-        <v>248.250021567657</v>
+        <v>248.2500215676561</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368923</v>
+        <v>523.3850043368909</v>
       </c>
       <c r="M10" t="n">
-        <v>823.865389990404</v>
+        <v>823.865389990402</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.582027931089</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.490387616497</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.128892699198</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.147591173603</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="U10" t="n">
-        <v>927.0292176682451</v>
+        <v>1611.609820844019</v>
       </c>
       <c r="V10" t="n">
-        <v>672.3447294623583</v>
+        <v>1356.925332638132</v>
       </c>
       <c r="W10" t="n">
-        <v>382.9275594253976</v>
+        <v>1067.508162601172</v>
       </c>
       <c r="X10" t="n">
-        <v>382.9275594253976</v>
+        <v>1067.508162601172</v>
       </c>
       <c r="Y10" t="n">
-        <v>382.9275594253976</v>
+        <v>846.7155834576414</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.717886400351</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1400.559342807163</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1172.569791909146</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>951.7772127656159</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5278,19 +5278,19 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,28 +5299,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,28 +5527,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,52 +5740,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6226,13 +6226,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.435061037252</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>2159.833596060193</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1870.758369404391</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1616.073881198505</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1722.776592304621</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1494.787041406604</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6682,67 +6682,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>782.841029837709</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>782.841029837709</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1185.282073811479</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.4894946679487</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>221.3431781811715</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.5007694647281</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>631.5645865368213</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D37" t="n">
-        <v>481.4479471244855</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E37" t="n">
-        <v>333.5348535420924</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="F37" t="n">
-        <v>333.5348535420924</v>
+        <v>434.0093569897584</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3387542569723</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>166.3387542569723</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949679</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7153,70 +7153,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>658.9255961109956</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2342.134540858491</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2122.533075881433</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1833.45784922563</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1578.773361019743</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1289.356190982783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1061.366640084765</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>840.5740609412353</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081859</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4401.757925742791</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>4147.073437536905</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>3857.656267499944</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>3629.666716601927</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>3408.874137458397</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>983.3403484614391</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8145,7 +8145,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094455</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127221</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>210.4772158821364</v>
       </c>
       <c r="L9" t="n">
-        <v>199.5030096760078</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>304.9014880782322</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348528</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>253.7123957233514</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>124.9899273367992</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>129.6605885985412</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>114.1735436840664</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.257951202385328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>85.27126880501635</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>50.2939204546896</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>9.468966021655078</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>77.24602870709256</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>114.1584408891644</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>67.31863952450691</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>820976.9085260348</v>
+        <v>820976.9085260347</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>797336.9821029656</v>
+        <v>797336.9821029655</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>797336.9821029654</v>
+        <v>797336.9821029655</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>797336.9821029656</v>
+        <v>797336.9821029655</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>797336.9821029656</v>
+        <v>797336.9821029655</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>797336.9821029656</v>
+        <v>797336.9821029655</v>
       </c>
     </row>
     <row r="16">
@@ -26316,13 +26316,13 @@
         <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597549</v>
@@ -26331,31 +26331,31 @@
         <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="I2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="J2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580797</v>
+        <v>390680.0076580772</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606927</v>
+        <v>507909.2320606947</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.819371383657596e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101788</v>
+        <v>95270.23779101727</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954688</v>
+        <v>132717.9756954694</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501115</v>
+        <v>140465.2517501122</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="F4" t="n">
+        <v>11167.03225179355</v>
+      </c>
+      <c r="G4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="G4" t="n">
-        <v>11167.03225179352</v>
-      </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179346</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
@@ -26444,22 +26444,22 @@
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.867575679</v>
+        <v>92902.86757567883</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-358055.7777696591</v>
+        <v>-358055.7777696592</v>
       </c>
       <c r="C6" t="n">
-        <v>322032.2028215338</v>
+        <v>322032.2028215337</v>
       </c>
       <c r="D6" t="n">
-        <v>12259.24466094936</v>
+        <v>12259.24466095155</v>
       </c>
       <c r="E6" t="n">
-        <v>5339.820623361258</v>
+        <v>4992.441369002652</v>
       </c>
       <c r="F6" t="n">
-        <v>513249.0526840544</v>
+        <v>512901.6734296971</v>
       </c>
       <c r="G6" t="n">
-        <v>513249.052684054</v>
+        <v>512901.6734296969</v>
       </c>
       <c r="H6" t="n">
-        <v>513249.0526840543</v>
+        <v>512901.6734296975</v>
       </c>
       <c r="I6" t="n">
-        <v>513249.0526840543</v>
+        <v>512901.6734296973</v>
       </c>
       <c r="J6" t="n">
-        <v>444249.89826494</v>
+        <v>443902.5190105831</v>
       </c>
       <c r="K6" t="n">
-        <v>513249.0526840542</v>
+        <v>512901.6734296973</v>
       </c>
       <c r="L6" t="n">
-        <v>417978.8148930364</v>
+        <v>417631.4356386797</v>
       </c>
       <c r="M6" t="n">
-        <v>380531.0769885855</v>
+        <v>380183.6977342281</v>
       </c>
       <c r="N6" t="n">
-        <v>513249.0526840542</v>
+        <v>512901.6734296968</v>
       </c>
       <c r="O6" t="n">
-        <v>513249.0526840541</v>
+        <v>512901.6734296971</v>
       </c>
       <c r="P6" t="n">
-        <v>513249.0526840543</v>
+        <v>512901.6734296971</v>
       </c>
     </row>
   </sheetData>
@@ -26694,28 +26694,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.022529435979808e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.022529435979808e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.022529435979808e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.022529435979808e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.022529435979808e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.774214229571995e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.774214229571995e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627835</v>
+        <v>933.7024595627814</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856964</v>
+        <v>640.1406900856941</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26819,13 +26819,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.022529435979808e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.774214229571995e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933052</v>
+        <v>319.6474457933031</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788905</v>
+        <v>434.2730407788921</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841903</v>
+        <v>376.4268100841879</v>
       </c>
       <c r="E4" t="n">
-        <v>532.567598013952</v>
+        <v>532.567598013954</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841905</v>
+        <v>376.4268100841882</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139515</v>
+        <v>532.567598013954</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.022529435979808e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.774214229571995e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841903</v>
+        <v>376.4268100841879</v>
       </c>
       <c r="M4" t="n">
-        <v>532.567598013952</v>
+        <v>532.567598013954</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>180.5549891403835</v>
+        <v>295.8616086872806</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>163.3852416405468</v>
       </c>
       <c r="V3" t="n">
-        <v>70.62747432448847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,22 +27545,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>106.0703963257171</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>227.8822995018203</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>129.7959578577966</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
-        <v>165.463694159538</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>144.7152466539865</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27760,10 +27760,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>50.51920908443734</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>61.78062392927954</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27833,16 +27833,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>142.6263937134851</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>350.8391794902353</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>14.08022031720003</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348408</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.776449164536885</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27985,7 +27985,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.776449164527861</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>164.1007081271399</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>262.3094583832969</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.416577200369171e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>8.43922632925412e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-8.761884095931661e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885559</v>
+        <v>3.753577726885551</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546674</v>
+        <v>38.44132789546666</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.7098053157553</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972535</v>
+        <v>318.5802175972528</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763193</v>
+        <v>477.4691627763182</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354933</v>
+        <v>592.3427171354921</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359944</v>
+        <v>659.0954050359929</v>
       </c>
       <c r="N8" t="n">
-        <v>669.760257752508</v>
+        <v>669.7602577525065</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307897</v>
+        <v>632.4356192307883</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983024</v>
+        <v>539.7691690983012</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542132</v>
+        <v>405.3441667542123</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864752</v>
+        <v>235.7856768864747</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140475</v>
+        <v>85.53465245140457</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944154</v>
+        <v>16.43128649944151</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508447</v>
+        <v>0.300286218150844</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436931</v>
+        <v>2.008341139436926</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035141</v>
+        <v>19.39634732035137</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026275</v>
+        <v>69.1468330902626</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079427</v>
+        <v>189.7441951079423</v>
       </c>
       <c r="K9" t="n">
-        <v>324.303051450217</v>
+        <v>324.3030514502163</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571283</v>
+        <v>436.0654741571274</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617169</v>
+        <v>508.8678404617158</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152217</v>
+        <v>522.3360580152206</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519086</v>
+        <v>477.8354464519076</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947592</v>
+        <v>383.5050724947583</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463703</v>
+        <v>256.3629847463698</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204789</v>
+        <v>124.6933209204787</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366401</v>
+        <v>37.30405581366393</v>
       </c>
       <c r="T9" t="n">
-        <v>8.09502415413394</v>
+        <v>8.095024154133922</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419034</v>
+        <v>0.1321277065419031</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.68372574675256</v>
+        <v>1.683725746752556</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840005</v>
+        <v>14.96985254840001</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415882</v>
+        <v>50.63422518415872</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954057</v>
       </c>
       <c r="K10" t="n">
-        <v>195.618318577252</v>
+        <v>195.6183185772515</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490125</v>
+        <v>250.3240987490119</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023127</v>
+        <v>263.9316641023121</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462351</v>
+        <v>257.6559590462346</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046256</v>
+        <v>237.9869810046251</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708732</v>
+        <v>203.6389757708727</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.98907139398</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307418</v>
+        <v>75.70643221307402</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658779</v>
+        <v>29.34274778658773</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942755</v>
+        <v>7.194100917942739</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650338</v>
+        <v>0.09183958618650319</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>183.7183104822601</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256881</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,19 +32311,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
@@ -32335,10 +32335,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>291.8940795642898</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>351.5042614518788</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>266.6561007250657</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>162.5000833330452</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34131,34 +34131,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34865,7 +34865,7 @@
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
         <v>213.581156752698</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35032,10 +35032,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250132</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705672</v>
+        <v>137.5343130705665</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313388</v>
+        <v>257.3793117313377</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655061</v>
+        <v>356.5763021655048</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087217</v>
+        <v>428.7491718087202</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559171</v>
+        <v>440.3471941559156</v>
       </c>
       <c r="O8" t="n">
-        <v>402.337407809103</v>
+        <v>402.3374078091016</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430329</v>
+        <v>308.5361733430316</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797637</v>
+        <v>183.0384768797628</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234306</v>
+        <v>20.20013907234255</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127597</v>
+        <v>62.90656844127557</v>
       </c>
       <c r="K9" t="n">
-        <v>186.461612475858</v>
+        <v>396.9388283579937</v>
       </c>
       <c r="L9" t="n">
-        <v>497.014104053262</v>
+        <v>297.5110943772532</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396986</v>
+        <v>366.7338065396975</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318885</v>
+        <v>390.9943459318873</v>
       </c>
       <c r="O9" t="n">
-        <v>640.1406900856964</v>
+        <v>335.2392020074631</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804289</v>
+        <v>567.9934337203653</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603488</v>
+        <v>116.3812106603482</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783581</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873323</v>
+        <v>25.68023017873296</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513691</v>
+        <v>173.3488267513687</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093286</v>
+        <v>277.9141240093281</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641532</v>
+        <v>303.5155410641527</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254637</v>
+        <v>301.7881314254631</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186653</v>
+        <v>262.5721089186648</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357667</v>
+        <v>200.9175350357662</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228593</v>
+        <v>54.82702814228561</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>45.87687150790109</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>103.6778299969399</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>208.9080170074344</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>128.8146617507067</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>23.94570355317105</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2458159.101229244</v>
+        <v>2459919.63153203</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>116.9725659584294</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>219.4450108596164</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="3">
@@ -746,19 +746,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>62.46924586300781</v>
+        <v>10.09427429948317</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>2.045652159837941</v>
       </c>
       <c r="S4" t="n">
-        <v>98.64876791787661</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>219.4450108596164</v>
+        <v>225.1346772411287</v>
       </c>
       <c r="X5" t="n">
         <v>263.7138800015061</v>
@@ -980,10 +980,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>21.77034978617706</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>155.2537761190401</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>84.65333871728963</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>2.214688090590209</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,7 +1150,7 @@
         <v>11.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>286.9532539031005</v>
+        <v>194.5162159197263</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646899</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>91.06264775160821</v>
+        <v>92.83909691614511</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115247</v>
+        <v>20.24979976115256</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901739</v>
+        <v>132.6026661256307</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>23.91773138700752</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>217.5925404204245</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710063</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534452</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="15">
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>120.458979059674</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V19" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>66.85274231757823</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>146.4649598217087</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>32.27552175740353</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>9.146142788179411</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>115.2302178375792</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>153.0347892581641</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522.1002068716687</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="C2" t="n">
-        <v>522.1002068716687</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="D2" t="n">
-        <v>522.1002068716687</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="E2" t="n">
-        <v>522.1002068716687</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="F2" t="n">
-        <v>255.7225503044907</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358413</v>
@@ -4369,13 +4369,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>833.1938928750989</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388467</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="Y2" t="n">
-        <v>522.1002068716687</v>
+        <v>300.4385797407429</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>626.7308562709218</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C3" t="n">
-        <v>452.2778269897948</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>303.3434173285435</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>303.3434173285435</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374624</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>794.9461932909899</v>
+        <v>1026.32339954667</v>
       </c>
       <c r="V3" t="n">
-        <v>794.9461932909899</v>
+        <v>1026.32339954667</v>
       </c>
       <c r="W3" t="n">
-        <v>794.9461932909899</v>
+        <v>1026.32339954667</v>
       </c>
       <c r="X3" t="n">
-        <v>794.9461932909899</v>
+        <v>818.4718993411373</v>
       </c>
       <c r="Y3" t="n">
-        <v>794.9461932909899</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>773.5618350567178</v>
+        <v>340.1499327403632</v>
       </c>
       <c r="C4" t="n">
-        <v>604.6256521288109</v>
+        <v>171.2137498124562</v>
       </c>
       <c r="D4" t="n">
-        <v>454.5090127164751</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>306.595919134082</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
@@ -4500,10 +4500,10 @@
         <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>1052.789204693057</v>
       </c>
       <c r="S4" t="n">
-        <v>955.2102998869575</v>
+        <v>1052.789204693057</v>
       </c>
       <c r="T4" t="n">
-        <v>955.2102998869575</v>
+        <v>827.3201684510713</v>
       </c>
       <c r="U4" t="n">
-        <v>955.2102998869575</v>
+        <v>827.3201684510713</v>
       </c>
       <c r="V4" t="n">
-        <v>955.2102998869575</v>
+        <v>827.3201684510713</v>
       </c>
       <c r="W4" t="n">
-        <v>955.2102998869575</v>
+        <v>560.9425118838933</v>
       </c>
       <c r="X4" t="n">
-        <v>955.2102998869575</v>
+        <v>560.9425118838933</v>
       </c>
       <c r="Y4" t="n">
-        <v>955.2102998869575</v>
+        <v>340.1499327403632</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>300.4385797407429</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="C5" t="n">
-        <v>300.4385797407429</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>300.4385797407429</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>300.4385797407429</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
@@ -4567,22 +4567,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4600,19 +4600,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="W5" t="n">
-        <v>833.1938928750989</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="X5" t="n">
-        <v>566.8162363079209</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="Y5" t="n">
-        <v>300.4385797407429</v>
+        <v>41.00642392276842</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>503.7220043479542</v>
+        <v>217.5403919905173</v>
       </c>
       <c r="C6" t="n">
-        <v>329.2689750668272</v>
+        <v>43.08736270939025</v>
       </c>
       <c r="D6" t="n">
-        <v>180.334565405576</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
         <v>21.09711040012049</v>
@@ -4649,22 +4649,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4682,16 +4682,16 @@
         <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>801.367527981072</v>
       </c>
       <c r="X6" t="n">
-        <v>879.6976401329762</v>
+        <v>593.5160277755392</v>
       </c>
       <c r="Y6" t="n">
-        <v>671.9373413680223</v>
+        <v>385.7557290105853</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>572.1814809021204</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C7" t="n">
-        <v>572.1814809021204</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>422.0648414897846</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>336.5564185430274</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>189.666471045117</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4761,16 +4761,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>800.1710318001377</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>800.1710318001377</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>572.1814809021204</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="Y7" t="n">
-        <v>572.1814809021204</v>
+        <v>831.8258821851307</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1876.731217729092</v>
+        <v>1414.397955350928</v>
       </c>
       <c r="C8" t="n">
-        <v>1507.76870078868</v>
+        <v>1414.397955350928</v>
       </c>
       <c r="D8" t="n">
-        <v>1149.50300218193</v>
+        <v>1056.132256744178</v>
       </c>
       <c r="E8" t="n">
-        <v>763.7147495836853</v>
+        <v>670.3440041459335</v>
       </c>
       <c r="F8" t="n">
-        <v>352.7288447940777</v>
+        <v>259.3580993563259</v>
       </c>
       <c r="G8" t="n">
-        <v>341.0630268261489</v>
+        <v>247.6922813883971</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685541</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685541</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467168</v>
+        <v>187.3702251467158</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607413</v>
+        <v>442.1757437607396</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045911</v>
+        <v>795.1862829045881</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995224</v>
+        <v>1219.64796299522</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.59168520958</v>
+        <v>1655.591685209576</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940591</v>
+        <v>2053.905718940586</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550192</v>
+        <v>2359.356530550187</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661158</v>
+        <v>2540.564622661151</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.56276034277</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.56276034277</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342777</v>
+        <v>2351.810676439043</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342777</v>
+        <v>2098.229497964613</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999206</v>
+        <v>1767.166610621042</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.731217729092</v>
+        <v>1414.397955350928</v>
       </c>
       <c r="X8" t="n">
-        <v>1876.731217729092</v>
+        <v>1414.397955350928</v>
       </c>
       <c r="Y8" t="n">
-        <v>1876.731217729092</v>
+        <v>1414.397955350928</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010714</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199444</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586931</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532376</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801226</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763108</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993884</v>
+        <v>71.6655983999388</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685541</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637183</v>
+        <v>113.488757963718</v>
       </c>
       <c r="K9" t="n">
-        <v>506.4581980381321</v>
+        <v>298.0857543148163</v>
       </c>
       <c r="L9" t="n">
-        <v>800.9941814716128</v>
+        <v>592.6217377482965</v>
       </c>
       <c r="M9" t="n">
-        <v>1164.060649945913</v>
+        <v>1208.393778287022</v>
       </c>
       <c r="N9" t="n">
-        <v>1551.145052418482</v>
+        <v>1842.133061471857</v>
       </c>
       <c r="O9" t="n">
-        <v>1883.03186240587</v>
+        <v>2174.019871459245</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789032</v>
+        <v>2421.055229888869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342777</v>
+        <v>2536.272628442613</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.56276034277</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251692</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685341</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.72632175157</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519828</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791626</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586093</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821139</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.0671186274017</v>
+        <v>496.1309356994947</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1309356994948</v>
+        <v>496.1309356994947</v>
       </c>
       <c r="D10" t="n">
-        <v>346.014296287159</v>
+        <v>346.0142962871589</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1012027047659</v>
+        <v>198.1012027047658</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685541</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685541</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685541</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685541</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380115</v>
+        <v>76.63468308380089</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676561</v>
+        <v>248.2500215676556</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368909</v>
+        <v>523.3850043368901</v>
       </c>
       <c r="M10" t="n">
-        <v>823.865389990402</v>
+        <v>823.8653899904009</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101609</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931089</v>
+        <v>1382.582027931087</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616497</v>
+        <v>1581.490387616495</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.76914547736</v>
+        <v>1635.769145477358</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.76914547736</v>
+        <v>1635.769145477358</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.76914547736</v>
+        <v>1635.769145477358</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.76914547736</v>
+        <v>1635.769145477358</v>
       </c>
       <c r="U10" t="n">
-        <v>1611.609820844019</v>
+        <v>1635.769145477358</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.925332638132</v>
+        <v>1415.978700608242</v>
       </c>
       <c r="W10" t="n">
-        <v>1067.508162601172</v>
+        <v>1126.561530571282</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.508162601172</v>
+        <v>898.5719796732645</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7155834576414</v>
+        <v>677.7794005297344</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5041,19 +5041,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5129,7 +5129,7 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
         <v>261.0127623330919</v>
@@ -5244,7 +5244,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="14">
@@ -5272,13 +5272,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5369,10 +5369,10 @@
         <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348531</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2299.457522348531</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5746,40 +5746,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5843,7 +5843,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,16 +5971,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6229,16 +6229,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.435061037252</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2159.833596060193</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1870.758369404391</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.073881198505</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1326.656711161544</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263527</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
         <v>402.7245934908939</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>580.8993044876688</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>580.8993044876688</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>580.8993044876688</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>434.0093569897584</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7645,10 +7645,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7845,13 +7845,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8148,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>171.8177168444617</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127221</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,28 +8534,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>210.4772158821364</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>255.2581536004295</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538059</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348528</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
     </row>
     <row r="14">
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>131.678664264154</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V19" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
-        <v>121.5862749664508</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>114.1735436840664</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>72.11969353038612</v>
       </c>
     </row>
     <row r="29">
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>50.2939204546896</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>79.42624789262584</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
     </row>
     <row r="44">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>797336.9821029655</v>
+        <v>797336.9821029656</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>797336.9821029655</v>
+        <v>797336.9821029656</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>797336.9821029655</v>
+        <v>797336.9821029656</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>797336.9821029655</v>
+        <v>797336.9821029656</v>
       </c>
     </row>
     <row r="15">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="J2" t="n">
         <v>625538.6147597549</v>
@@ -26343,19 +26343,19 @@
         <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580772</v>
+        <v>390680.0076580758</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606947</v>
+        <v>507909.232060696</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>3.819371383657596e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101727</v>
+        <v>95270.23779101684</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954694</v>
+        <v>132717.9756954698</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501122</v>
+        <v>140465.2517501126</v>
       </c>
       <c r="E4" t="n">
+        <v>11167.03225179357</v>
+      </c>
+      <c r="F4" t="n">
         <v>11167.03225179358</v>
       </c>
-      <c r="F4" t="n">
-        <v>11167.03225179355</v>
-      </c>
       <c r="G4" t="n">
+        <v>11167.03225179356</v>
+      </c>
+      <c r="H4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11167.03225179346</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
@@ -26444,7 +26444,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567883</v>
+        <v>92902.86757567871</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>322032.2028215337</v>
       </c>
       <c r="D6" t="n">
-        <v>12259.24466095155</v>
+        <v>12259.24466095222</v>
       </c>
       <c r="E6" t="n">
-        <v>4992.441369002652</v>
+        <v>5305.082697922728</v>
       </c>
       <c r="F6" t="n">
-        <v>512901.6734296971</v>
+        <v>513214.3147586185</v>
       </c>
       <c r="G6" t="n">
-        <v>512901.6734296969</v>
+        <v>513214.3147586182</v>
       </c>
       <c r="H6" t="n">
-        <v>512901.6734296975</v>
+        <v>513214.3147586184</v>
       </c>
       <c r="I6" t="n">
-        <v>512901.6734296973</v>
+        <v>513214.3147586182</v>
       </c>
       <c r="J6" t="n">
-        <v>443902.5190105831</v>
+        <v>444215.1603395044</v>
       </c>
       <c r="K6" t="n">
-        <v>512901.6734296973</v>
+        <v>513214.3147586185</v>
       </c>
       <c r="L6" t="n">
-        <v>417631.4356386797</v>
+        <v>417944.0769676015</v>
       </c>
       <c r="M6" t="n">
-        <v>380183.6977342281</v>
+        <v>380496.3390631487</v>
       </c>
       <c r="N6" t="n">
-        <v>512901.6734296968</v>
+        <v>513214.3147586185</v>
       </c>
       <c r="O6" t="n">
-        <v>512901.6734296971</v>
+        <v>513214.3147586185</v>
       </c>
       <c r="P6" t="n">
-        <v>512901.6734296971</v>
+        <v>513214.3147586185</v>
       </c>
     </row>
   </sheetData>
@@ -26694,28 +26694,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.022529435979808e-14</v>
+        <v>3.519713256482332e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>4.022529435979808e-14</v>
+        <v>3.519713256482332e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>4.022529435979808e-14</v>
+        <v>3.519713256482332e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>4.022529435979808e-14</v>
+        <v>3.519713256482332e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>4.022529435979808e-14</v>
+        <v>3.519713256482332e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.774214229571995e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.774214229571995e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627814</v>
+        <v>933.7024595627803</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856941</v>
+        <v>640.1406900856925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.022529435979808e-14</v>
+        <v>3.519713256482332e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.774214229571995e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933031</v>
+        <v>319.647445793302</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788921</v>
+        <v>434.2730407788932</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841879</v>
+        <v>376.4268100841865</v>
       </c>
       <c r="E4" t="n">
-        <v>532.567598013954</v>
+        <v>532.5675980139556</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841882</v>
+        <v>376.4268100841865</v>
       </c>
       <c r="M4" t="n">
-        <v>532.567598013954</v>
+        <v>532.5675980139556</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.022529435979808e-14</v>
+        <v>3.519713256482332e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4.774214229571995e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841879</v>
+        <v>376.4268100841865</v>
       </c>
       <c r="M4" t="n">
-        <v>532.567598013954</v>
+        <v>532.5675980139556</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>295.8616086872806</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>129.7959578577966</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y2" t="n">
         <v>122.5240586545474</v>
@@ -27466,19 +27466,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>163.3852416405468</v>
+        <v>215.7602132040714</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27557,10 +27557,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>125.458950723826</v>
       </c>
       <c r="S4" t="n">
-        <v>106.0703963257171</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27672,13 +27672,13 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>129.7959578577966</v>
+        <v>124.1062914762843</v>
       </c>
       <c r="X5" t="n">
         <v>106.0172206769629</v>
@@ -27700,10 +27700,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>125.6747157784617</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>50.51920908443734</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>61.78062392927954</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27833,16 +27833,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>223.4949672984469</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>14.08022031720003</v>
+        <v>106.5172583005743</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465059</v>
+        <v>65.76608425465076</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348408</v>
+        <v>123.4854171348409</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.776449164536885</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.776449164543237</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640955</v>
+        <v>101.5869591640956</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>194.6738502503846</v>
       </c>
       <c r="T10" t="n">
         <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>262.3094583832969</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>34.54510290340355</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.239505050323024e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.416577200369171e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>8.43922632925412e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>9.848122317634986e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-8.761884095931661e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885551</v>
+        <v>3.753577726885546</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546666</v>
+        <v>38.44132789546661</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157553</v>
+        <v>144.7098053157551</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972528</v>
+        <v>318.5802175972524</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763182</v>
+        <v>477.4691627763177</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354921</v>
+        <v>592.3427171354913</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359929</v>
+        <v>659.0954050359921</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525065</v>
+        <v>669.7602577525057</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307883</v>
+        <v>632.4356192307876</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983012</v>
+        <v>539.7691690983005</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542123</v>
+        <v>405.3441667542118</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864747</v>
+        <v>235.7856768864744</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140457</v>
+        <v>85.53465245140447</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944151</v>
+        <v>16.43128649944149</v>
       </c>
       <c r="U8" t="n">
-        <v>0.300286218150844</v>
+        <v>0.3002862181508436</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436926</v>
+        <v>2.008341139436924</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035137</v>
+        <v>19.39634732035135</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902626</v>
+        <v>69.14683309026252</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079423</v>
+        <v>189.744195107942</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502163</v>
+        <v>324.3030514502159</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571274</v>
+        <v>436.0654741571268</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617158</v>
+        <v>508.8678404617152</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152206</v>
+        <v>522.3360580152199</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519076</v>
+        <v>477.835446451907</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947583</v>
+        <v>383.5050724947579</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463698</v>
+        <v>256.3629847463694</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204787</v>
+        <v>124.6933209204785</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366393</v>
+        <v>37.30405581366389</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133922</v>
+        <v>8.095024154133913</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419031</v>
+        <v>0.1321277065419029</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752556</v>
+        <v>1.683725746752554</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840001</v>
+        <v>14.9698525484</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415872</v>
+        <v>50.63422518415865</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954057</v>
+        <v>119.0394102954056</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772515</v>
+        <v>195.6183185772513</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490119</v>
+        <v>250.3240987490116</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023121</v>
+        <v>263.9316641023117</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462346</v>
+        <v>257.6559590462343</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046251</v>
+        <v>237.9869810046248</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708727</v>
+        <v>203.6389757708725</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.98907139398</v>
+        <v>140.9890713939798</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307402</v>
+        <v>75.70643221307392</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658773</v>
+        <v>29.34274778658769</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942739</v>
+        <v>7.19410091794273</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650319</v>
+        <v>0.09183958618650308</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,10 +31849,10 @@
         <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>444.2274915982898</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192562</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437242</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>593.5422977113966</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>390.1398273256881</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33900,7 +33900,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -34134,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34868,7 +34868,7 @@
         <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35032,10 +35032,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250132</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705665</v>
+        <v>137.5343130705661</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313377</v>
+        <v>257.3793117313371</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655048</v>
+        <v>356.576302165504</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087202</v>
+        <v>428.7491718087194</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559156</v>
+        <v>440.3471941559148</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091016</v>
+        <v>402.3374078091008</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430316</v>
+        <v>308.536173343031</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797628</v>
+        <v>183.0384768797623</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234255</v>
+        <v>20.20013907234227</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127557</v>
+        <v>62.90656844127531</v>
       </c>
       <c r="K9" t="n">
-        <v>396.9388283579937</v>
+        <v>186.4616124758569</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772532</v>
+        <v>297.5110943772526</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396975</v>
+        <v>621.9919601401264</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318873</v>
+        <v>640.1406900856925</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074631</v>
+        <v>335.2392020074626</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203653</v>
+        <v>249.5306650804276</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603482</v>
+        <v>116.3812106603479</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783539</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873296</v>
+        <v>25.68023017873281</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513687</v>
+        <v>173.3488267513684</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093281</v>
+        <v>277.9141240093278</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641527</v>
+        <v>303.5155410641523</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254631</v>
+        <v>301.7881314254629</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186648</v>
+        <v>262.5721089186645</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357662</v>
+        <v>200.917535035766</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228561</v>
+        <v>54.82702814228544</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>302.0934576762715</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359229</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992797</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>462.2005856280633</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>256.1654199113578</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -37548,7 +37548,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
